--- a/smoc-admin-ui/src/main/resources/static/files/register/telc.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/register/telc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="结算单" sheetId="1" r:id="rId1"/>
@@ -291,12 +291,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -337,30 +338,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,6 +346,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,24 +373,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,26 +389,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,8 +413,62 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,20 +481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -513,163 +514,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,15 +751,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -774,13 +766,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,30 +810,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,16 +837,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,137 +866,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1017,6 +1018,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1402,7 +1404,7 @@
   <dimension ref="A1:AJ169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1472,28 +1474,28 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="5" t="s">
@@ -1535,19 +1537,19 @@
       <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="11"/>
+      <c r="AJ1" s="12"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="99" customHeight="1" spans="1:36">
       <c r="A2" s="6" t="s">
@@ -1573,15 +1575,15 @@
       <c r="K2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
@@ -1621,9 +1623,9 @@
       <c r="AG2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12" t="s">
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1750,10 +1752,10 @@
       <c r="D4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G4" t="s">
